--- a/data/NHMX511301944912-produdctos.xlsx
+++ b/data/NHMX511301944912-produdctos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aed3bed0cf741fc/Dulka/SitioWeb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2321B5-C2D4-494A-AAB0-40B3B19ED0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3F2321B5-C2D4-494A-AAB0-40B3B19ED0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB95DB9-D8D5-4D52-81F5-326B6FE13C66}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5493D9FB-161D-428C-A5B5-6DE67BE81223}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="394">
   <si>
     <t>Subtotal</t>
   </si>
@@ -1218,6 +1218,9 @@
   </si>
   <si>
     <t>ProductCode</t>
+  </si>
+  <si>
+    <t>Precio</t>
   </si>
 </sst>
 </file>
@@ -15693,6 +15696,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19304,7 +19311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="202.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="222.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>27</v>
       </c>
@@ -21097,11 +21104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE47307-50EA-409A-AC59-64384F9F1DD0}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21109,10 +21116,11 @@
     <col min="1" max="1" width="30.5703125" style="2"/>
     <col min="2" max="4" width="30.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="30.5703125" style="2"/>
+    <col min="6" max="6" width="30.5703125" style="4"/>
+    <col min="7" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>392</v>
       </c>
@@ -21128,8 +21136,11 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>293</v>
       </c>
@@ -21145,8 +21156,11 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F2" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>294</v>
       </c>
@@ -21162,8 +21176,11 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F3" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>295</v>
       </c>
@@ -21179,8 +21196,11 @@
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F4" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -21196,8 +21216,11 @@
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F5" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>297</v>
       </c>
@@ -21213,8 +21236,11 @@
       <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F6" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>298</v>
       </c>
@@ -21230,8 +21256,11 @@
       <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F7" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
@@ -21247,8 +21276,11 @@
       <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F8" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>300</v>
       </c>
@@ -21264,8 +21296,11 @@
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F9" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>301</v>
       </c>
@@ -21281,8 +21316,11 @@
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F10" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>302</v>
       </c>
@@ -21298,8 +21336,11 @@
       <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F11" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>303</v>
       </c>
@@ -21315,8 +21356,11 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F12" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>304</v>
       </c>
@@ -21332,8 +21376,11 @@
       <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="F13" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>305</v>
       </c>
@@ -21349,8 +21396,11 @@
       <c r="E14" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F14" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>306</v>
       </c>
@@ -21366,8 +21416,11 @@
       <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="F15" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>307</v>
       </c>
@@ -21383,8 +21436,11 @@
       <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F16" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>308</v>
       </c>
@@ -21400,8 +21456,11 @@
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F17" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>309</v>
       </c>
@@ -21417,8 +21476,11 @@
       <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="F18" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>310</v>
       </c>
@@ -21434,8 +21496,11 @@
       <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F19" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>311</v>
       </c>
@@ -21451,8 +21516,11 @@
       <c r="E20" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="F20" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>312</v>
       </c>
@@ -21468,8 +21536,11 @@
       <c r="E21" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="F21" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>313</v>
       </c>
@@ -21485,8 +21556,11 @@
       <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F22" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>314</v>
       </c>
@@ -21502,8 +21576,11 @@
       <c r="E23" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F23" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>315</v>
       </c>
@@ -21519,8 +21596,11 @@
       <c r="E24" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="F24" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>316</v>
       </c>
@@ -21536,8 +21616,11 @@
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F25" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>317</v>
       </c>
@@ -21553,8 +21636,11 @@
       <c r="E26" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F26" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>318</v>
       </c>
@@ -21570,8 +21656,11 @@
       <c r="E27" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F27" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>319</v>
       </c>
@@ -21587,8 +21676,11 @@
       <c r="E28" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F28" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>320</v>
       </c>
@@ -21604,8 +21696,11 @@
       <c r="E29" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="F29" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>321</v>
       </c>
@@ -21621,8 +21716,11 @@
       <c r="E30" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="F30" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>322</v>
       </c>
@@ -21638,8 +21736,11 @@
       <c r="E31" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="F31" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>323</v>
       </c>
@@ -21655,8 +21756,11 @@
       <c r="E32" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="F32" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>324</v>
       </c>
@@ -21672,8 +21776,11 @@
       <c r="E33" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F33" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>325</v>
       </c>
@@ -21689,8 +21796,11 @@
       <c r="E34" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="F34" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>326</v>
       </c>
@@ -21706,8 +21816,11 @@
       <c r="E35" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="F35" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>327</v>
       </c>
@@ -21723,8 +21836,11 @@
       <c r="E36" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="F36" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>328</v>
       </c>
@@ -21740,8 +21856,11 @@
       <c r="E37" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="F37" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>329</v>
       </c>
@@ -21757,8 +21876,11 @@
       <c r="E38" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F38" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>330</v>
       </c>
@@ -21774,8 +21896,11 @@
       <c r="E39" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="F39" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>331</v>
       </c>
@@ -21791,8 +21916,11 @@
       <c r="E40" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="F40" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>332</v>
       </c>
@@ -21808,8 +21936,11 @@
       <c r="E41" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="F41" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>333</v>
       </c>
@@ -21825,8 +21956,11 @@
       <c r="E42" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="F42" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>334</v>
       </c>
@@ -21842,8 +21976,11 @@
       <c r="E43" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F43" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>335</v>
       </c>
@@ -21859,8 +21996,11 @@
       <c r="E44" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="F44" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>336</v>
       </c>
@@ -21876,8 +22016,11 @@
       <c r="E45" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="F45" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>337</v>
       </c>
@@ -21893,8 +22036,11 @@
       <c r="E46" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="F46" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>338</v>
       </c>
@@ -21910,8 +22056,11 @@
       <c r="E47" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="F47" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="48" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>339</v>
       </c>
@@ -21927,8 +22076,11 @@
       <c r="E48" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="F48" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>340</v>
       </c>
@@ -21944,8 +22096,11 @@
       <c r="E49" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="F49" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="50" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>341</v>
       </c>
@@ -21961,8 +22116,11 @@
       <c r="E50" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F50" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>342</v>
       </c>
@@ -21978,8 +22136,11 @@
       <c r="E51" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="F51" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="52" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>343</v>
       </c>
@@ -21995,8 +22156,11 @@
       <c r="E52" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="F52" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>344</v>
       </c>
@@ -22012,8 +22176,11 @@
       <c r="E53" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="F53" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>345</v>
       </c>
@@ -22029,8 +22196,11 @@
       <c r="E54" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="F54" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>346</v>
       </c>
@@ -22046,8 +22216,11 @@
       <c r="E55" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="F55" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>347</v>
       </c>
@@ -22063,8 +22236,11 @@
       <c r="E56" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="F56" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>348</v>
       </c>
@@ -22080,8 +22256,11 @@
       <c r="E57" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="F57" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>349</v>
       </c>
@@ -22097,8 +22276,11 @@
       <c r="E58" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="F58" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>350</v>
       </c>
@@ -22114,8 +22296,11 @@
       <c r="E59" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="F59" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="60" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>351</v>
       </c>
@@ -22131,8 +22316,11 @@
       <c r="E60" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="F60" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>352</v>
       </c>
@@ -22148,8 +22336,11 @@
       <c r="E61" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="F61" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>353</v>
       </c>
@@ -22165,8 +22356,11 @@
       <c r="E62" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F62" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>354</v>
       </c>
@@ -22182,8 +22376,11 @@
       <c r="E63" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="F63" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="64" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>355</v>
       </c>
@@ -22199,8 +22396,11 @@
       <c r="E64" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="F64" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="65" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>356</v>
       </c>
@@ -22216,8 +22416,11 @@
       <c r="E65" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="F65" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="66" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>357</v>
       </c>
@@ -22233,8 +22436,11 @@
       <c r="E66" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="F66" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="67" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>358</v>
       </c>
@@ -22250,8 +22456,11 @@
       <c r="E67" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="F67" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="68" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>359</v>
       </c>
@@ -22267,8 +22476,11 @@
       <c r="E68" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="F68" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="69" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>360</v>
       </c>
@@ -22284,8 +22496,11 @@
       <c r="E69" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="F69" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="70" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>361</v>
       </c>
@@ -22301,8 +22516,11 @@
       <c r="E70" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="F70" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="71" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>362</v>
       </c>
@@ -22318,8 +22536,11 @@
       <c r="E71" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="F71" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>363</v>
       </c>
@@ -22335,8 +22556,11 @@
       <c r="E72" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="F72" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>364</v>
       </c>
@@ -22352,8 +22576,11 @@
       <c r="E73" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="F73" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="74" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>365</v>
       </c>
@@ -22369,8 +22596,11 @@
       <c r="E74" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="F74" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="75" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
@@ -22386,8 +22616,11 @@
       <c r="E75" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="F75" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="76" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>367</v>
       </c>
@@ -22403,8 +22636,11 @@
       <c r="E76" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="F76" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="77" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>368</v>
       </c>
@@ -22420,8 +22656,11 @@
       <c r="E77" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="F77" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="78" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>369</v>
       </c>
@@ -22437,8 +22676,11 @@
       <c r="E78" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F78" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="79" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>370</v>
       </c>
@@ -22454,8 +22696,11 @@
       <c r="E79" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="F79" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="80" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>371</v>
       </c>
@@ -22471,8 +22716,11 @@
       <c r="E80" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="F80" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="81" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>372</v>
       </c>
@@ -22488,8 +22736,11 @@
       <c r="E81" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="F81" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="82" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>373</v>
       </c>
@@ -22505,8 +22756,11 @@
       <c r="E82" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="F82" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="83" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>374</v>
       </c>
@@ -22522,8 +22776,11 @@
       <c r="E83" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F83" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="84" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>375</v>
       </c>
@@ -22539,8 +22796,11 @@
       <c r="E84" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="F84" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="85" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>376</v>
       </c>
@@ -22556,8 +22816,11 @@
       <c r="E85" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="F85" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="86" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>377</v>
       </c>
@@ -22573,8 +22836,11 @@
       <c r="E86" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="F86" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="87" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>378</v>
       </c>
@@ -22590,8 +22856,11 @@
       <c r="E87" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="F87" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="88" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>379</v>
       </c>
@@ -22607,8 +22876,11 @@
       <c r="E88" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="F88" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="89" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>380</v>
       </c>
@@ -22624,8 +22896,11 @@
       <c r="E89" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="F89" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="90" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>381</v>
       </c>
@@ -22641,8 +22916,11 @@
       <c r="E90" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="F90" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="91" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>382</v>
       </c>
@@ -22658,8 +22936,11 @@
       <c r="E91" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="F91" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="92" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>383</v>
       </c>
@@ -22675,8 +22956,11 @@
       <c r="E92" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="F92" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="93" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>384</v>
       </c>
@@ -22692,8 +22976,11 @@
       <c r="E93" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="F93" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="94" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>385</v>
       </c>
@@ -22709,8 +22996,11 @@
       <c r="E94" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="F94" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="95" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>386</v>
       </c>
@@ -22726,8 +23016,11 @@
       <c r="E95" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="F95" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="96" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>387</v>
       </c>
@@ -22743,8 +23036,11 @@
       <c r="E96" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="F96" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>388</v>
       </c>
@@ -22760,8 +23056,11 @@
       <c r="E97" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="F97" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>389</v>
       </c>
@@ -22777,8 +23076,11 @@
       <c r="E98" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="F98" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>390</v>
       </c>
@@ -22794,8 +23096,11 @@
       <c r="E99" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="F99" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>391</v>
       </c>
@@ -22811,16 +23116,19 @@
       <c r="E100" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="F100" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="B1:E100" xr:uid="{2B52688D-972F-49BF-B67E-0D1025010083}"/>
   <phoneticPr fontId="4" type="noConversion"/>
